--- a/New Integration Documentation/DevelopersIntegrationChecklist.xlsx
+++ b/New Integration Documentation/DevelopersIntegrationChecklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Create Repository for integration agent</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t xml:space="preserve">Logentries logging data in the correct format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer engedagment (mettings, conferences, etc) </t>
+  </si>
+  <si>
+    <t>Load all necessary data to profile (contacts, personnel,Vehicles, etc )</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -263,19 +269,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -474,64 +467,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D43"/>
+  <dimension ref="B1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,311 +829,333 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="5" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D19" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="5" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="5" t="s">
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="5" t="s">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="5" t="s">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="6" t="s">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D27" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="5" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="5" t="s">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="6" t="s">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="16"/>
+      <c r="C30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D32" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="5" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="5" t="s">
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="5" t="s">
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="5" t="s">
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="5" t="s">
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="5" t="s">
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-      <c r="C37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16"/>
       <c r="C40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="8" t="s">
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="16"/>
+      <c r="C44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="D9:D17"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D32:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>